--- a/10_Bayes_Golf/Datos en Bruto.xlsx
+++ b/10_Bayes_Golf/Datos en Bruto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edgar\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC2818F0-B880-4099-BFD8-7C4B0C553FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB87C6B-C2D0-4FF6-994A-B76A4A63C93D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{EF902DAE-D36D-453D-85C9-401E0EA93D32}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="17">
   <si>
     <t>Play</t>
   </si>
@@ -438,9 +438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC80CA4-EB49-4EFB-8D0A-17C38D811FDD}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -500,13 +502,13 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -514,19 +516,19 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -534,16 +536,16 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -551,16 +553,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -568,7 +570,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -577,12 +579,12 @@
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -591,10 +593,10 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -602,21 +604,21 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
@@ -628,74 +630,6 @@
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
         <v>10</v>
       </c>
     </row>
